--- a/biology/Botanique/Parc_de_l'installateur/Parc_de_l'installateur.xlsx
+++ b/biology/Botanique/Parc_de_l'installateur/Parc_de_l'installateur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_de_l%27installateur</t>
+          <t>Parc_de_l'installateur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc de l'installateur (en finnois : Asentajanpuisto), est un parc situe dans le parc d'affaires d'Herttoniemi à Helsinki en Finlande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc de l'installateur (en finnois : Asentajanpuisto), est un parc situe dans le parc d'affaires d'Herttoniemi à Helsinki en Finlande.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_de_l%27installateur</t>
+          <t>Parc_de_l'installateur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc longiligne est entouré des rues Laivalahdenkatu, Puusepänkatu, Mekaanikonkatu et Asentajankatu.
 Les parcs Asentajanpuisto et Valurinpuisto forment un alignement de parcs de 850 mètres de long dans la zone de l'ancienne voie de chemin de fer du port d'Herttoniemi.
@@ -521,7 +535,7 @@
 Les zones humides et les fossés de la zone servent au drainage des eaux de la zone industrielle.
 Des sculptures de grande taille ont été placées le long du couloir de circulation douce très fréquenté.
 Dans le plan du parc, plusieurs places ont été réservées pour des œuvres d'art.
-L'intention du concepteur était que le parcours guidé par les sculptures, qui guide l'œil, suscite l'intérêt de connaître plus en détail le parc[2].
+L'intention du concepteur était que le parcours guidé par les sculptures, qui guide l'œil, suscite l'intérêt de connaître plus en détail le parc.
 </t>
         </is>
       </c>
